--- a/biology/Écologie/Région_circumboréale/Région_circumboréale.xlsx
+++ b/biology/Écologie/Région_circumboréale/Région_circumboréale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
+          <t>Région_circumboréale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La région circumboréale est une région phytogéographique qui a été délimitée par Josias Braun-Blanquet et Armen Takhtajan. Le terme circumboréal qualifie la zone tempérée froide de l'hémisphère nord ainsi que l'arctique. Son nom vient du latin circum- signifiant « autour », et de boréale, du latin borealis lui-même issu du grec ancien Βορέας / Boréas signifiant « vent du nord ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
+          <t>Région_circumboréale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région circumboréale fait partie du royaume de l’Holarctique regroupant les écozones du Néarctique et du Paléarctique qui comprennent les portions nord de l’Amérique du Nord, de l’Europe, de l’Asie ainsi que la région arctique tout autour du pôle Nord..
 Il s’agit de la plus grande région floristique du monde en termes de superficie. Elle est divisée en 15 provinces floristiques (Arctique, Europe atlantique, Europe centrale, Illyrie ou Balkan, Pont-Euxin, Caucase, Europe oriental, Europe du Nord, Sibérie occidentale, Altai-Sayan, Sibérie centrale, Transbaikalie, nord-est de la Sibérie, Okhotsk-Kamchatka, Canada incl. Grands lacs).  La région circumboréale est si vaste qu’elle contient de nombreux biomes.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
+          <t>Région_circumboréale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Biomes et écorégions terrestres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification des écosystèmes proposée par le Fonds mondial pour la nature (WWF), ci-dessous, la classification des biomes et des écorégions de la région circumboréale dans l'écozone du Paléarctique.
 Classification des biomes et écorégions de la partie circumboréale du Néarctique
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
+          <t>Région_circumboréale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,23 +591,12 @@
           <t>Types de végétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La région circumboréale ne comprend aucune famille biologique endémique, mais elle possède quelques genres endémiques( Lunaria, Borodinia, Gorodkovia, Redowskia, Soldabella, Physospermum, Astrantia, Thorella, Pulmonaria, Erinus, Ramonda, Haberlea, Jankaea, Stratiotes, Telekia) et beaucoup d’espèces endémiques, plus particulièrement dans les montagnes.
 Les types de végétation sont décrits principalement par les biomes.
-Toundra
-On trouve dans la Toundra la formation végétale circumpolaire avec des plantes herbacées, plus particulièrement des lichens et des sous-frutescentes dont se nourrissent les rennes qui migrent vers la Taïga à l’approche de l’hiver. Le climat accompagné d'un permafrost, un sol gelé durant plusieurs années, ne permettent pas le développement de grands arbres, dans les régions les chaudes, on peut tout de même trouver des arbres pouvant atteindre 2 mètres. Cette région comprend des arbustes de la famille des Salicaceae et des Betulaceae, avec des formes naines. La toundra possède également des pelouses à Cyperaceae et Juncaceae. La croissance ralentit des plantes de la toundra est dues aux conditions climatiques extrêmes.
-Forêt boréalee/Taïga
-Le froid, le sol et le drainage de cette région favorise la présence de conifères( Abies, Picea, Larix et Pinus).On trouve également quelques feuillus comme des espèces de la famille des Salicaceae, ainsi que des bouleaux et des sorbiers, se situant principalement aux abords des cours d’eau. Certains écosystèmes accueillent aussi des arbustes notamment des arbustes de la famille des Ericaceae.  La Taïga forme un vaste anneau circumpolaire(green halo) de plus de 15 000 000 km2 de forêt interrompue uniquement par le détroit de la Béring et l’océan Atlantique.
-Ce biome est régulé par des perturbations majeures telles que des attaques de ravageurs mais plus particulièrement et plus majoritairement par les feux de forêts. Ces phénomènes permettent le recyclage de la matière organique en compensant le processus de décomposition ralentit dans ces forêts nordiques. On observe également localement des tourbières.
-Forêts tempérées décidues et mixtes
-Dans les régions où les précipitations sont distribuées de façon générale tout au long de l’année,  des feuillus se mêlent aux conifères. Les forêts tempérées décidues et mixtes se composent essentiellement de chênes (Quercus), d’hêtre(Fagus), de bouleaux(Betula) et d’érable (Acer spp.).
-Ces forêts sont structurées en quatre strates qui sont une canopée d’arbres matures de grandes tailles, un ensemble d’arbres en pleine croissance, une couche d’arbuste et une couche au sol constituée de plantes herbacées. Les espèces dominantes ont des distributions généralisées.
-Forêts de conifères tempérées
-Les conifères prédominent dans ces forêts mais parfois ils forment un mélanges avec des feuillus. Ce type de forêts se trouvent principalement dans certaines zones côtières, ou même à l’intérieur des terres. On y trouve un grand nombre d’espèce d’arbres : cèdre, cyprès, sapin, genévrier, pin. Le sous-bois est lui-aussi constitué d’une grande variété de plantes herbacées et d’arbustes.
-Ces forêts sont généralement formées de deux strates : l’étage supérieur et inférieur
-Prairies, savanes et terres arbustives tempérées
-Cette région possède un climat tempéré avec des précipitations faibles à modérées où principalement des plantes herbacées, notamment de la famille des Poacées dont les parties souterraines peuvent se maintenir plusieurs années dans le sol. Ces étendues herbacées ont une période végétative relativement courte due aux longs hivers, et leur aspect change énormément selon les saisons. Ces vastes prairies sont également appelées steppe, pampa ou selon le lieu[pas clair] où elles se trouvent.
 </t>
         </is>
       </c>
@@ -602,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
+          <t>Région_circumboréale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +622,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Types de végétation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toundra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve dans la Toundra la formation végétale circumpolaire avec des plantes herbacées, plus particulièrement des lichens et des sous-frutescentes dont se nourrissent les rennes qui migrent vers la Taïga à l’approche de l’hiver. Le climat accompagné d'un permafrost, un sol gelé durant plusieurs années, ne permettent pas le développement de grands arbres, dans les régions les chaudes, on peut tout de même trouver des arbres pouvant atteindre 2 mètres. Cette région comprend des arbustes de la famille des Salicaceae et des Betulaceae, avec des formes naines. La toundra possède également des pelouses à Cyperaceae et Juncaceae. La croissance ralentit des plantes de la toundra est dues aux conditions climatiques extrêmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de végétation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forêt boréalee/Taïga</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le froid, le sol et le drainage de cette région favorise la présence de conifères( Abies, Picea, Larix et Pinus).On trouve également quelques feuillus comme des espèces de la famille des Salicaceae, ainsi que des bouleaux et des sorbiers, se situant principalement aux abords des cours d’eau. Certains écosystèmes accueillent aussi des arbustes notamment des arbustes de la famille des Ericaceae.  La Taïga forme un vaste anneau circumpolaire(green halo) de plus de 15 000 000 km2 de forêt interrompue uniquement par le détroit de la Béring et l’océan Atlantique.
+Ce biome est régulé par des perturbations majeures telles que des attaques de ravageurs mais plus particulièrement et plus majoritairement par les feux de forêts. Ces phénomènes permettent le recyclage de la matière organique en compensant le processus de décomposition ralentit dans ces forêts nordiques. On observe également localement des tourbières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de végétation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forêts tempérées décidues et mixtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les régions où les précipitations sont distribuées de façon générale tout au long de l’année,  des feuillus se mêlent aux conifères. Les forêts tempérées décidues et mixtes se composent essentiellement de chênes (Quercus), d’hêtre(Fagus), de bouleaux(Betula) et d’érable (Acer spp.).
+Ces forêts sont structurées en quatre strates qui sont une canopée d’arbres matures de grandes tailles, un ensemble d’arbres en pleine croissance, une couche d’arbuste et une couche au sol constituée de plantes herbacées. Les espèces dominantes ont des distributions généralisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Types de végétation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Forêts de conifères tempérées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conifères prédominent dans ces forêts mais parfois ils forment un mélanges avec des feuillus. Ce type de forêts se trouvent principalement dans certaines zones côtières, ou même à l’intérieur des terres. On y trouve un grand nombre d’espèce d’arbres : cèdre, cyprès, sapin, genévrier, pin. Le sous-bois est lui-aussi constitué d’une grande variété de plantes herbacées et d’arbustes.
+Ces forêts sont généralement formées de deux strates : l’étage supérieur et inférieur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Types de végétation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prairies, savanes et terres arbustives tempérées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette région possède un climat tempéré avec des précipitations faibles à modérées où principalement des plantes herbacées, notamment de la famille des Poacées dont les parties souterraines peuvent se maintenir plusieurs années dans le sol. Ces étendues herbacées ont une période végétative relativement courte due aux longs hivers, et leur aspect change énormément selon les saisons. Ces vastes prairies sont également appelées steppe, pampa ou selon le lieu[pas clair] où elles se trouvent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Provinces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Arctique
 La province arctique comprend le Groenland, l'Islande, les zones dépourvues d'arbres de la Norvège,la Finlande, l'Alaska,le Canada et toutes les îles arctiques
@@ -664,36 +859,37 @@
 La province d’Okhotsk‐Kamchatka n’a qu’un genre endémique (Redowskia) et plusieurs espèces endémiques (ex. Abies gracilis, Picea kamtschatkensis, Delphinium ochotense)
 15. Canada incl. Grands lacs
 Canada incl. grands lacs (Saint-Pierre et Miquelon, partie du Canada et des États-Unis) 
-[2]
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Endémismes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Liste des genres et espèces endémiques selon les régions (la liste ne demande qu'à être complétée)
 1. Arctique
@@ -960,31 +1156,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Paléoclimats[3]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a 200 millions d’années(Trias), l’Eurasie et l’Amérique du Nord formaient un supercontinent nommé Laurasie, ils partageaient donc leur flore. Celle-ci est restée similaire après la séparation des deux plaques il y a 65 millions d’années. 
 Des ponts terrestres comme celui de Béring se sont périodiquement formés entre l’Alaska et la Sibérie, permettant à nouveau aux deux plaques de communiquer. Béring fut également un refuge lors des fortes fluctuations climatiques, c'est pourquoi il fut un hot spot de diversité et d'endémisme.
@@ -993,31 +1191,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Réchauffement climatique globale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Les écosystèmes boréales et arctiques sont davantage susceptible au réchauffement climatique. En effet la hausse des températures fait fondre les calottes glaciaires et le permafrost subit par un endroit un dégel provoquant une déstabilisation du sol.
 Le réchauffement des régions polaires y est deux fois plus rapide que partout ailleurs sur le Globe. Récemment, les régions de l’Arctique ont connu une inquiétante poussée de fièvre avec un réchauffement moyen de 1,2 °C et jusqu’à 2 à 3 °C par décennie, localement en Alaska et en Sibérie.
@@ -1025,33 +1225,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Région_circumboréale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_circumbor%C3%A9ale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Préservation et sauvegarde</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CAFF (Conservation of Arctic Flora and Fauna) ainsi que son sous-groupe le CBMV (Circumboreal Vegetation Mapping group)[4] cherchent à mettre en commun diverses études pour établir des cartes qui permettront une vision plus globale des écosystèmes pour assurer leur préservation et pour mettre en œuvre des projets pour le maintien de la diversité spécifique.
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CAFF (Conservation of Arctic Flora and Fauna) ainsi que son sous-groupe le CBMV (Circumboreal Vegetation Mapping group) cherchent à mettre en commun diverses études pour établir des cartes qui permettront une vision plus globale des écosystèmes pour assurer leur préservation et pour mettre en œuvre des projets pour le maintien de la diversité spécifique.
 </t>
         </is>
       </c>
